--- a/solution/09-apps/streamlit/sales.xlsx
+++ b/solution/09-apps/streamlit/sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workspace\iten-engineering\workshop\lab\09-apps\streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workspace\iten-engineering\python\solution\09-apps\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC74AC-05A9-426A-AB2D-34C1FA123B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAF9781-3B47-4E7D-B80F-FA553BA2A60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="969" yWindow="583" windowWidth="15548" windowHeight="16748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Monat</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Genf</t>
+  </si>
+  <si>
+    <t>Montreux</t>
   </si>
 </sst>
 </file>
@@ -354,18 +357,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.4609375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,8 +381,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -392,8 +398,11 @@
       <c r="D2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -406,8 +415,11 @@
       <c r="D3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -420,8 +432,11 @@
       <c r="D4">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -434,8 +449,11 @@
       <c r="D5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -448,8 +466,11 @@
       <c r="D6">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -462,8 +483,11 @@
       <c r="D7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -476,8 +500,11 @@
       <c r="D8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -490,8 +517,11 @@
       <c r="D9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -504,8 +534,11 @@
       <c r="D10">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -518,8 +551,11 @@
       <c r="D11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -532,8 +568,11 @@
       <c r="D12">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -544,6 +583,9 @@
         <v>170</v>
       </c>
       <c r="D13">
+        <v>140</v>
+      </c>
+      <c r="E13">
         <v>140</v>
       </c>
     </row>

--- a/solution/09-apps/streamlit/sales.xlsx
+++ b/solution/09-apps/streamlit/sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\workspace\iten-engineering\python\solution\09-apps\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAF9781-3B47-4E7D-B80F-FA553BA2A60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453FE4A7-DCA6-4E5A-872E-BF9E2B0E2432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22140" yWindow="3270" windowWidth="14670" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
